--- a/public/exports/exported_data.xlsx
+++ b/public/exports/exported_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -32,37 +32,16 @@
     <t>Opis</t>
   </si>
   <si>
-    <t>Testowy projekt</t>
-  </si>
-  <si>
-    <t>2000-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2020-05-01 00:00:00</t>
-  </si>
-  <si>
-    <t>Wlazł kotek na płotek</t>
-  </si>
-  <si>
-    <t>Drugi testowy projekt</t>
-  </si>
-  <si>
-    <t>1980-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>1990-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>ładna to piosenka nie długa</t>
-  </si>
-  <si>
-    <t>test projektu</t>
-  </si>
-  <si>
-    <t>1990-02-19 00:00:00</t>
-  </si>
-  <si>
-    <t>mnbgfghjm</t>
+    <t>2020-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>qwertyuiop</t>
+  </si>
+  <si>
+    <t>Testowy projekt 2</t>
   </si>
 </sst>
 </file>
@@ -402,7 +381,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,53 +408,325 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2323232</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2323232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>2323232</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2323232</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>2323232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B8">
+        <v>2323232</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B9">
+        <v>2323232</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>15</v>
+      </c>
+      <c r="B10">
+        <v>2323232</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2323232</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>2323232</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>2323232</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2323232</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>2323232</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>2323232</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>2323232</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>2323232</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>2323232</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>2323232</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
